--- a/bulletin/macroeconomics/static/macroeconomics/tables/gdp.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/gdp.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73AE63E-6B1C-472D-A0DD-A2DE1B843959}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,49 +19,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Показатели</t>
   </si>
   <si>
+    <t>Среднегодовой курс $</t>
+  </si>
+  <si>
+    <t>Реальный рост ВВП в %</t>
+  </si>
+  <si>
+    <t>103 765,5</t>
+  </si>
+  <si>
+    <t>46 727,9</t>
+  </si>
+  <si>
+    <t>4,9*</t>
+  </si>
+  <si>
+    <t>2023 (янв-июнь)</t>
+  </si>
+  <si>
+    <t>млрд долл.США</t>
+  </si>
+  <si>
     <t>млрд тенге</t>
   </si>
   <si>
-    <t>23 494,9*</t>
-  </si>
-  <si>
-    <t>млрд долл. США</t>
-  </si>
-  <si>
-    <t>51,6*</t>
-  </si>
-  <si>
-    <t>на душу населения. $</t>
-  </si>
-  <si>
-    <t>Среднегодовой курс $</t>
-  </si>
-  <si>
-    <t>454,9*</t>
-  </si>
-  <si>
-    <t>Реальный рост ВВП в %</t>
-  </si>
-  <si>
-    <t>Производство товаров, ИФО</t>
-  </si>
-  <si>
-    <t>Производство услуг, ИФО</t>
-  </si>
-  <si>
-    <t>2023 (янв-май)</t>
+    <t>на душу населения.$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +63,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006FC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -87,14 +130,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -155,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -190,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -367,183 +529,159 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="42" thickBot="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="9">
         <v>2019</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="9">
         <v>2020</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="9">
         <v>2021</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="9">
         <v>2022</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.2" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>69532.600000000006</v>
+      </c>
+      <c r="C3" s="3">
+        <v>70649</v>
+      </c>
+      <c r="D3" s="4">
+        <v>83951.6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>181.7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>171.1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>197.1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>225.3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9812</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9121</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10220</v>
+      </c>
+      <c r="E5" s="7">
+        <v>11436</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>69532.600000000006</v>
-      </c>
-      <c r="C2" s="1">
-        <v>70649</v>
-      </c>
-      <c r="D2" s="1">
-        <v>83951.6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>102891.8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B6" s="3">
+        <v>382.7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>412.9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>426</v>
+      </c>
+      <c r="E6" s="3">
+        <v>460.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>451.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" thickBot="1">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>181.7</v>
-      </c>
-      <c r="C3">
-        <v>171.1</v>
-      </c>
-      <c r="D3">
-        <v>197.1</v>
-      </c>
-      <c r="E3">
-        <v>223.4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>9812</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9121</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10220</v>
-      </c>
-      <c r="E4" s="2">
-        <v>11304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>382.7</v>
-      </c>
-      <c r="C5">
-        <v>412.9</v>
-      </c>
-      <c r="D5">
-        <v>426</v>
-      </c>
-      <c r="E5">
-        <v>460.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>4.5</v>
-      </c>
-      <c r="C6">
-        <v>-2.5</v>
-      </c>
-      <c r="D6">
-        <v>4.3</v>
-      </c>
-      <c r="E6">
-        <v>3.2</v>
-      </c>
-      <c r="F6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>104.9</v>
-      </c>
-      <c r="C7">
-        <v>102</v>
-      </c>
-      <c r="D7">
-        <v>103.6</v>
-      </c>
-      <c r="E7">
-        <v>103.2</v>
-      </c>
-      <c r="F7">
-        <v>103.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>104.4</v>
-      </c>
-      <c r="C8">
-        <v>94.7</v>
-      </c>
-      <c r="D8">
-        <v>104</v>
-      </c>
-      <c r="E8">
-        <v>102.6</v>
-      </c>
-      <c r="F8">
-        <v>104.9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
